--- a/data/trans_orig/ProbViv_temp-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32A9B519-71AE-46DB-86CB-4979049FB9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{406A050C-D998-4F5B-B8A5-A057556E1AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D475FA33-77BC-41F4-8F74-B561CA61B10B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E5139D7-F60D-4D96-8A1A-4BC455B36916}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="186">
   <si>
     <t>Hogares con problemas de temperatura en la vivienda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -284,61 +284,61 @@
     <t>26,48%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
   </si>
   <si>
     <t>73,52%</t>
   </si>
   <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
   </si>
   <si>
     <t>86,63%</t>
   </si>
   <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>34,23%</t>
+    <t>33,86%</t>
   </si>
   <si>
     <t>42,64%</t>
@@ -347,19 +347,19 @@
     <t>33,38%</t>
   </si>
   <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
   </si>
   <si>
     <t>35,72%</t>
   </si>
   <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
   </si>
   <si>
     <t>61,64%</t>
@@ -368,241 +368,235 @@
     <t>57,36%</t>
   </si>
   <si>
-    <t>65,77%</t>
+    <t>66,14%</t>
   </si>
   <si>
     <t>66,62%</t>
   </si>
   <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
   </si>
   <si>
     <t>64,28%</t>
   </si>
   <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>39,37%</t>
   </si>
   <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
   </si>
   <si>
     <t>42,96%</t>
   </si>
   <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
   </si>
   <si>
     <t>41,18%</t>
   </si>
   <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
   </si>
   <si>
     <t>60,63%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
   </si>
   <si>
     <t>57,04%</t>
   </si>
   <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
   </si>
   <si>
     <t>58,82%</t>
   </si>
   <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
   </si>
   <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>30,81%</t>
   </si>
   <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
   </si>
   <si>
     <t>66,2%</t>
   </si>
   <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
   </si>
   <si>
     <t>69,19%</t>
   </si>
   <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
   </si>
   <si>
     <t>50,61%</t>
   </si>
   <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
   </si>
   <si>
     <t>52,35%</t>
   </si>
   <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
   </si>
   <si>
     <t>51,56%</t>
   </si>
   <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
   </si>
   <si>
     <t>49,39%</t>
   </si>
   <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
   </si>
   <si>
     <t>47,65%</t>
   </si>
   <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
   </si>
   <si>
     <t>48,44%</t>
   </si>
   <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
   </si>
   <si>
     <t>40,82%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>42,86%</t>
   </si>
   <si>
     <t>39,88%</t>
   </si>
   <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
   </si>
   <si>
     <t>40,32%</t>
   </si>
   <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
   </si>
   <si>
     <t>59,18%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
+    <t>57,14%</t>
   </si>
   <si>
     <t>60,12%</t>
   </si>
   <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F844DE54-071D-4EA9-A63A-6B0E2D8FCED2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A064ACF-52A0-45A2-8B80-8FE5438A211E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1991,7 +1985,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2042,7 +2036,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2077,7 +2071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC3EDCC-10E4-4C33-AC7B-564EC16400B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5C9632-7320-4B72-B5EA-79F2A3197B89}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3140,7 +3134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B35C88-8B2D-4522-8573-F28B2FB21C2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFF0FB5-BA4E-4208-90AC-752DB4486A36}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4203,7 +4197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8156F71-09C9-4471-A297-63C61F96E2D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372FD633-7959-4193-9A3E-779752799FF4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4649,7 +4643,7 @@
         <v>612</v>
       </c>
       <c r="I10" s="7">
-        <v>455066</v>
+        <v>455067</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>119</v>
@@ -4751,7 +4745,7 @@
         <v>1515</v>
       </c>
       <c r="I12" s="7">
-        <v>1059248</v>
+        <v>1059249</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5105,10 +5099,10 @@
         <v>170</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>2134</v>
@@ -5117,13 +5111,13 @@
         <v>1528673</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>3553</v>
@@ -5132,13 +5126,13 @@
         <v>2910462</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5147,13 @@
         <v>2003119</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>3228</v>
@@ -5168,13 +5162,13 @@
         <v>2304419</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>5183</v>
@@ -5183,13 +5177,13 @@
         <v>4307538</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/ProbViv_temp-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{406A050C-D998-4F5B-B8A5-A057556E1AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12CDB37A-A2D8-4343-9B61-B99AFBD81545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E5139D7-F60D-4D96-8A1A-4BC455B36916}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61C4AB09-CA3C-4EA9-9513-F34FBFE4A0F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -128,7 +128,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -143,7 +143,7 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -233,7 +233,7 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares con problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -1008,7 +1008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A064ACF-52A0-45A2-8B80-8FE5438A211E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA57EBC5-3285-46A7-BDED-9C151704F61A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1955,7 +1955,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2006,7 +2006,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2071,7 +2071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5C9632-7320-4B72-B5EA-79F2A3197B89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2230BD-35AB-41D8-B27F-3DF91F076914}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3134,7 +3134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFF0FB5-BA4E-4208-90AC-752DB4486A36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECFF148-25A7-4471-9349-14B3264F4560}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4197,7 +4197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372FD633-7959-4193-9A3E-779752799FF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108240F7-F809-4BDB-85B5-DFE18B7D64C4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/ProbViv_temp-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12CDB37A-A2D8-4343-9B61-B99AFBD81545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E738C839-9351-41AE-97A4-070CC92D2C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61C4AB09-CA3C-4EA9-9513-F34FBFE4A0F6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{822D3F27-20BA-4EA7-8139-1BE4F8877383}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="186">
-  <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="188">
+  <si>
+    <t>Población con problemas de temperatura en la vivienda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -194,7 +194,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2012 (Tasa respuesta: 100,0%)</t>
+    <t>Población con problemas de temperatura en la vivienda en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -233,7 +233,7 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>Población con problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -278,67 +278,67 @@
     <t>99,87%</t>
   </si>
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2023 (Tasa respuesta: 99,92%)</t>
+    <t>Población con problemas de temperatura en la vivienda en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
   <si>
     <t>26,48%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
   </si>
   <si>
     <t>73,52%</t>
   </si>
   <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>86,63%</t>
   </si>
   <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>33,86%</t>
+    <t>34,23%</t>
   </si>
   <si>
     <t>42,64%</t>
@@ -347,19 +347,19 @@
     <t>33,38%</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>35,72%</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
   </si>
   <si>
     <t>61,64%</t>
@@ -368,235 +368,241 @@
     <t>57,36%</t>
   </si>
   <si>
-    <t>66,14%</t>
+    <t>65,77%</t>
   </si>
   <si>
     <t>66,62%</t>
   </si>
   <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
   </si>
   <si>
     <t>64,28%</t>
   </si>
   <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
   </si>
   <si>
     <t>39,37%</t>
   </si>
   <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>42,96%</t>
   </si>
   <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
   </si>
   <si>
     <t>41,18%</t>
   </si>
   <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
   </si>
   <si>
     <t>60,63%</t>
   </si>
   <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
   </si>
   <si>
     <t>57,04%</t>
   </si>
   <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
   </si>
   <si>
     <t>58,82%</t>
   </si>
   <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
   </si>
   <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>30,08%</t>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
   </si>
   <si>
     <t>37,89%</t>
   </si>
   <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
   </si>
   <si>
     <t>62,11%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA57EBC5-3285-46A7-BDED-9C151704F61A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7990C9A-E03E-41ED-96D0-D72016C59B0B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1955,7 +1961,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -1985,7 +1991,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2006,7 +2012,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2036,7 +2042,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2071,7 +2077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2230BD-35AB-41D8-B27F-3DF91F076914}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70400ED-57D2-401D-B5D6-71DDBF4AF431}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3134,7 +3140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECFF148-25A7-4471-9349-14B3264F4560}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50E7005-6281-490E-AABC-9F58E3A4177D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4197,7 +4203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108240F7-F809-4BDB-85B5-DFE18B7D64C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25380889-5960-4E1B-930B-BBEC4B1D4AE4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4643,7 +4649,7 @@
         <v>612</v>
       </c>
       <c r="I10" s="7">
-        <v>455067</v>
+        <v>455066</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>119</v>
@@ -4745,7 +4751,7 @@
         <v>1515</v>
       </c>
       <c r="I12" s="7">
-        <v>1059249</v>
+        <v>1059248</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5099,10 +5105,10 @@
         <v>170</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>2134</v>
@@ -5111,13 +5117,13 @@
         <v>1528673</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>3553</v>
@@ -5126,13 +5132,13 @@
         <v>2910462</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5153,13 @@
         <v>2003119</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="H20" s="7">
         <v>3228</v>
@@ -5162,13 +5168,13 @@
         <v>2304419</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>5183</v>
@@ -5177,13 +5183,13 @@
         <v>4307538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
